--- a/7-28-14results summary.xlsx
+++ b/7-28-14results summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="0" windowWidth="17460" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="10380" yWindow="1020" windowWidth="27520" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Trait</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t xml:space="preserve">unit </t>
+  </si>
+  <si>
+    <t>pval2</t>
   </si>
 </sst>
 </file>
@@ -124,8 +127,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -135,16 +150,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G9" totalsRowShown="0">
+  <autoFilter ref="A1:G9"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Trait"/>
+    <tableColumn id="2" name="#SNPs"/>
+    <tableColumn id="3" name="Cardio effect"/>
+    <tableColumn id="4" name="pval"/>
+    <tableColumn id="5" name="T2D effect"/>
+    <tableColumn id="6" name="pval2"/>
+    <tableColumn id="7" name="units"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -469,13 +512,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -494,7 +541,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -684,9 +731,48 @@
         <v>10</v>
       </c>
     </row>
+    <row r="18" spans="2:3">
+      <c r="B18">
+        <v>-4.8600000000000003</v>
+      </c>
+      <c r="C18">
+        <f>B18/33</f>
+        <v>-0.14727272727272728</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19">
+        <v>-0.89</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:C21" si="0">B19/33</f>
+        <v>-2.696969696969697E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20">
+        <v>-0.87</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>-2.6363636363636363E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21">
+        <v>1.91</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>5.7878787878787877E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
